--- a/data/raw_analysis/price_by_manufacturer.xlsx
+++ b/data/raw_analysis/price_by_manufacturer.xlsx
@@ -3767,7 +3767,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>86420.26000000007</v>
+        <v>86420.25999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>55878.42999999999</v>
+        <v>55878.43</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2579.969999999999</v>
+        <v>2579.97</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>5266.759999999998</v>
+        <v>5266.76</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>13131.31453499999</v>
+        <v>13131.314535</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>17557.58359999999</v>
+        <v>17557.5836</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>9375.499999999998</v>
+        <v>9375.5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>9803.340000000002</v>
+        <v>9803.34</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>646.4900000000001</v>
+        <v>646.49</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>45.21000000000001</v>
+        <v>45.21</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>719.4100000000001</v>
+        <v>719.41</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>3903.600000000005</v>
+        <v>3903.6</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>25777.83193499999</v>
+        <v>25777.831935</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>20996.63000000003</v>
+        <v>20996.63</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>777.1399999999999</v>
+        <v>777.14</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>5619.905294999999</v>
+        <v>5619.905295</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4159,7 +4159,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>533.0999999999995</v>
+        <v>533.1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>786.6499999999999</v>
+        <v>786.65</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4231,7 +4231,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>7561.459999999998</v>
+        <v>7561.46</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>421.1201319999998</v>
+        <v>421.120132</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>7419.919999999999</v>
+        <v>7419.92</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>448.8800000000001</v>
+        <v>448.88</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>4977.719999999997</v>
+        <v>4977.72</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>697.5300000000001</v>
+        <v>697.53</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>6479.549999999999</v>
+        <v>6479.55</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>14059.39000000001</v>
+        <v>14059.39</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>2912.210000000001</v>
+        <v>2912.21</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>898.3699999999998</v>
+        <v>898.37</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>8492.019999999999</v>
+        <v>8492.02</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>736.4400000000001</v>
+        <v>736.4399999999999</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>5979.559999999998</v>
+        <v>5979.56</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>8508.260000000002</v>
+        <v>8508.26</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>815.0500000000001</v>
+        <v>815.05</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>627.6299999999999</v>
+        <v>627.63</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4567,7 +4567,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>735.7399999999999</v>
+        <v>735.74</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>529.5599999999999</v>
+        <v>529.5600000000001</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>483.6999999999999</v>
+        <v>483.7</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4695,7 +4695,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>51.16999999999999</v>
+        <v>51.17</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>755.0300000000001</v>
+        <v>755.03</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>70546.99999999999</v>
+        <v>70547</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>26826.09999999999</v>
+        <v>26826.1</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4863,7 +4863,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>997.1299999999999</v>
+        <v>997.13</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>69826.79999999999</v>
+        <v>69826.8</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4943,7 +4943,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>57.01636000000001</v>
+        <v>57.01636</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -4967,7 +4967,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>36579.58000000002</v>
+        <v>36579.58</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -4975,7 +4975,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>879.5100000000002</v>
+        <v>879.51</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -4991,7 +4991,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>860.5999999999999</v>
+        <v>860.6</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5031,7 +5031,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>7593.340000000002</v>
+        <v>7593.34</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>16185.32000000002</v>
+        <v>16185.32</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5079,7 +5079,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>30383.21999999999</v>
+        <v>30383.22</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5095,7 +5095,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>3935.370000000001</v>
+        <v>3935.37</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5111,7 +5111,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>6129.699999999999</v>
+        <v>6129.7</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>14555.00799999999</v>
+        <v>14555.008</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5167,7 +5167,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>3271.990000000001</v>
+        <v>3271.99</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>992.3214200000001</v>
+        <v>992.32142</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>41268.66999999999</v>
+        <v>41268.67</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>5216.570000000002</v>
+        <v>5216.57</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -5319,7 +5319,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>59410.24999999993</v>
+        <v>59410.25</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>870.5500000000001</v>
+        <v>870.55</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>53496.20999999998</v>
+        <v>53496.21</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -5415,7 +5415,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>6036.099999999996</v>
+        <v>6036.1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>50341.89000000005</v>
+        <v>50341.89</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -5455,7 +5455,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>358390.6100000012</v>
+        <v>358390.61</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>51698.61999999999</v>
+        <v>51698.62</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>79286.03999999995</v>
+        <v>79286.03999999999</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -5479,7 +5479,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>9802.029999999986</v>
+        <v>9802.030000000001</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>171052.2300000002</v>
+        <v>171052.23</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -5527,7 +5527,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>716.1861640000001</v>
+        <v>716.186164</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -5543,7 +5543,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>33561.89000000001</v>
+        <v>33561.89</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>48518.59000000006</v>
+        <v>48518.59</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -5567,7 +5567,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>79365.65999999996</v>
+        <v>79365.66</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -5591,7 +5591,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>59682.37000000005</v>
+        <v>59682.37</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -5599,7 +5599,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>6193.259706999999</v>
+        <v>6193.259707</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>486.1300000000001</v>
+        <v>486.13</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -5663,7 +5663,7 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>77255.04999999997</v>
+        <v>77255.05</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>16938.14999999999</v>
+        <v>16938.15</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>21747.75000000001</v>
+        <v>21747.75</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>25050.57000000001</v>
+        <v>25050.57</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -5711,7 +5711,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>2230.759999999999</v>
+        <v>2230.76</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -5727,7 +5727,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>5237.850000000005</v>
+        <v>5237.85</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -5799,7 +5799,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>16868.65999999999</v>
+        <v>16868.66</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -5831,7 +5831,7 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>623171.9000000086</v>
+        <v>623171.9</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>9351.289999999999</v>
+        <v>9351.290000000001</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5879,7 +5879,7 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>776.4000000000001</v>
+        <v>776.4</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>1418.180000000001</v>
+        <v>1418.18</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5959,7 +5959,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>3892.800000000002</v>
+        <v>3892.8</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>979.3100000000001</v>
+        <v>979.3099999999999</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>3113.910000000001</v>
+        <v>3113.91</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -6047,7 +6047,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>7160.508673999999</v>
+        <v>7160.508674</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>19522.82999999999</v>
+        <v>19522.83</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>1970.500000000001</v>
+        <v>1970.5</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>2618.100000000001</v>
+        <v>2618.1</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>2476.679999999999</v>
+        <v>2476.68</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>3379.810000000001</v>
+        <v>3379.81</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -6103,7 +6103,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>4104.009999999999</v>
+        <v>4104.01</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -6111,7 +6111,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>5324.279999999996</v>
+        <v>5324.28</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>13921.00000000002</v>
+        <v>13921</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>29145.50000000002</v>
+        <v>29145.5</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>4293.629999999999</v>
+        <v>4293.63</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>345.6099999999999</v>
+        <v>345.61</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -6207,7 +6207,7 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>5140.060000000002</v>
+        <v>5140.06</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>8587.079999999998</v>
+        <v>8587.08</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -6255,7 +6255,7 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>148489.5900000001</v>
+        <v>148489.59</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -6271,7 +6271,7 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>29249.88278999999</v>
+        <v>29249.88279</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>3649.590000000001</v>
+        <v>3649.59</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -6375,7 +6375,7 @@
         <v>329</v>
       </c>
       <c r="B329">
-        <v>7083.169999999999</v>
+        <v>7083.17</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -6399,7 +6399,7 @@
         <v>332</v>
       </c>
       <c r="B332">
-        <v>44882.93861600001</v>
+        <v>44882.938616</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>13465.88308099999</v>
+        <v>13465.883081</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -6511,7 +6511,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>43381.53999999997</v>
+        <v>43381.54</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6607,7 +6607,7 @@
         <v>358</v>
       </c>
       <c r="B358">
-        <v>140.1000000000001</v>
+        <v>140.1</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6639,7 +6639,7 @@
         <v>362</v>
       </c>
       <c r="B362">
-        <v>19153.80999999999</v>
+        <v>19153.81</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6679,7 +6679,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>1681.800000000001</v>
+        <v>1681.8</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -6719,7 +6719,7 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>13466.56999999999</v>
+        <v>13466.57</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -6791,7 +6791,7 @@
         <v>381</v>
       </c>
       <c r="B381">
-        <v>9137.510000000002</v>
+        <v>9137.51</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -6831,7 +6831,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>19237.00999999999</v>
+        <v>19237.01</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>387</v>
       </c>
       <c r="B387">
-        <v>3396.340000000002</v>
+        <v>3396.34</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>394</v>
       </c>
       <c r="B394">
-        <v>40162.20699999999</v>
+        <v>40162.207</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6903,7 +6903,7 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>18329.73999999999</v>
+        <v>18329.74</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>396</v>
       </c>
       <c r="B396">
-        <v>8143.50999999999</v>
+        <v>8143.51</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6943,7 +6943,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>440.0699999999999</v>
+        <v>440.07</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6975,7 +6975,7 @@
         <v>404</v>
       </c>
       <c r="B404">
-        <v>97792.37959999991</v>
+        <v>97792.3796</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>408</v>
       </c>
       <c r="B408">
-        <v>6664.789999999999</v>
+        <v>6664.79</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -7015,7 +7015,7 @@
         <v>409</v>
       </c>
       <c r="B409">
-        <v>6098.009999999999</v>
+        <v>6098.01</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -7047,7 +7047,7 @@
         <v>413</v>
       </c>
       <c r="B413">
-        <v>1254.200000000001</v>
+        <v>1254.2</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -7055,7 +7055,7 @@
         <v>414</v>
       </c>
       <c r="B414">
-        <v>776.6500000000001</v>
+        <v>776.65</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -7063,7 +7063,7 @@
         <v>415</v>
       </c>
       <c r="B415">
-        <v>6020.469999999998</v>
+        <v>6020.47</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -7119,7 +7119,7 @@
         <v>422</v>
       </c>
       <c r="B422">
-        <v>569.5300000000001</v>
+        <v>569.53</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -7135,7 +7135,7 @@
         <v>424</v>
       </c>
       <c r="B424">
-        <v>1503.670000000001</v>
+        <v>1503.67</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -7159,7 +7159,7 @@
         <v>427</v>
       </c>
       <c r="B427">
-        <v>3651.030000000002</v>
+        <v>3651.03</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -7343,7 +7343,7 @@
         <v>450</v>
       </c>
       <c r="B450">
-        <v>865.4999999999999</v>
+        <v>865.5</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -7423,7 +7423,7 @@
         <v>460</v>
       </c>
       <c r="B460">
-        <v>22252.65000000001</v>
+        <v>22252.65</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>461</v>
       </c>
       <c r="B461">
-        <v>71680.35999999997</v>
+        <v>71680.36</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -7479,7 +7479,7 @@
         <v>467</v>
       </c>
       <c r="B467">
-        <v>7352.099999999969</v>
+        <v>7352.1</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -7511,7 +7511,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>6715.170000000003</v>
+        <v>6715.17</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -7519,7 +7519,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>10847.72022231999</v>
+        <v>10847.72022232</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -7535,7 +7535,7 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>3285.159999999998</v>
+        <v>3285.16</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -7567,7 +7567,7 @@
         <v>478</v>
       </c>
       <c r="B478">
-        <v>103162.8072000001</v>
+        <v>103162.8072</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -7607,7 +7607,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>3282.300000000002</v>
+        <v>3282.3</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -7623,7 +7623,7 @@
         <v>485</v>
       </c>
       <c r="B485">
-        <v>47619.25000000001</v>
+        <v>47619.25</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -7647,7 +7647,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>11347.30439705999</v>
+        <v>11347.30439706</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -7671,7 +7671,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>48059.90999999997</v>
+        <v>48059.91</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -7679,7 +7679,7 @@
         <v>492</v>
       </c>
       <c r="B492">
-        <v>9041.199999999999</v>
+        <v>9041.200000000001</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -7687,7 +7687,7 @@
         <v>493</v>
       </c>
       <c r="B493">
-        <v>67479.79000000004</v>
+        <v>67479.78999999999</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -7783,7 +7783,7 @@
         <v>505</v>
       </c>
       <c r="B505">
-        <v>740.9499999999999</v>
+        <v>740.95</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -7799,7 +7799,7 @@
         <v>507</v>
       </c>
       <c r="B507">
-        <v>1707.600000000001</v>
+        <v>1707.6</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -7807,7 +7807,7 @@
         <v>508</v>
       </c>
       <c r="B508">
-        <v>82921.47999999998</v>
+        <v>82921.48</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>509</v>
       </c>
       <c r="B509">
-        <v>40899.64999999997</v>
+        <v>40899.65</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -7831,7 +7831,7 @@
         <v>511</v>
       </c>
       <c r="B511">
-        <v>848.7500000000001</v>
+        <v>848.75</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -7855,7 +7855,7 @@
         <v>514</v>
       </c>
       <c r="B514">
-        <v>994.3099999999997</v>
+        <v>994.3099999999999</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -7863,7 +7863,7 @@
         <v>515</v>
       </c>
       <c r="B515">
-        <v>728.1200000000001</v>
+        <v>728.12</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -7879,7 +7879,7 @@
         <v>517</v>
       </c>
       <c r="B517">
-        <v>19843.41375900001</v>
+        <v>19843.413759</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -7919,7 +7919,7 @@
         <v>522</v>
       </c>
       <c r="B522">
-        <v>701.7400000000001</v>
+        <v>701.74</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -7951,7 +7951,7 @@
         <v>526</v>
       </c>
       <c r="B526">
-        <v>25625.29000000002</v>
+        <v>25625.29</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -7959,7 +7959,7 @@
         <v>527</v>
       </c>
       <c r="B527">
-        <v>39437.77999999998</v>
+        <v>39437.78</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -7983,7 +7983,7 @@
         <v>530</v>
       </c>
       <c r="B530">
-        <v>484.2249299999999</v>
+        <v>484.22493</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -7999,7 +7999,7 @@
         <v>532</v>
       </c>
       <c r="B532">
-        <v>9487.559999999981</v>
+        <v>9487.559999999999</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -8055,7 +8055,7 @@
         <v>539</v>
       </c>
       <c r="B539">
-        <v>6373.914634999996</v>
+        <v>6373.914635</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>540</v>
       </c>
       <c r="B540">
-        <v>6446.180000000002</v>
+        <v>6446.18</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>542</v>
       </c>
       <c r="B542">
-        <v>15392.67000000001</v>
+        <v>15392.67</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -8087,7 +8087,7 @@
         <v>543</v>
       </c>
       <c r="B543">
-        <v>96846.12000000004</v>
+        <v>96846.12</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -8095,7 +8095,7 @@
         <v>544</v>
       </c>
       <c r="B544">
-        <v>5666.479999999998</v>
+        <v>5666.48</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -8119,7 +8119,7 @@
         <v>547</v>
       </c>
       <c r="B547">
-        <v>313.6199999999999</v>
+        <v>313.62</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -8159,7 +8159,7 @@
         <v>552</v>
       </c>
       <c r="B552">
-        <v>747.0661599999999</v>
+        <v>747.06616</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -8183,7 +8183,7 @@
         <v>555</v>
       </c>
       <c r="B555">
-        <v>13768.21999999995</v>
+        <v>13768.22</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -8199,7 +8199,7 @@
         <v>557</v>
       </c>
       <c r="B557">
-        <v>4012.579999999997</v>
+        <v>4012.58</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>558</v>
       </c>
       <c r="B558">
-        <v>45298.33719999998</v>
+        <v>45298.3372</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -8231,7 +8231,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>984.4199999999998</v>
+        <v>984.4200000000001</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -8279,7 +8279,7 @@
         <v>567</v>
       </c>
       <c r="B567">
-        <v>8833.999999999984</v>
+        <v>8834</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -8303,7 +8303,7 @@
         <v>570</v>
       </c>
       <c r="B570">
-        <v>253.5799999999999</v>
+        <v>253.58</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>574</v>
       </c>
       <c r="B574">
-        <v>4817.030000000002</v>
+        <v>4817.03</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>581</v>
       </c>
       <c r="B581">
-        <v>887.9599999999994</v>
+        <v>887.96</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -8399,7 +8399,7 @@
         <v>582</v>
       </c>
       <c r="B582">
-        <v>2251.924870000001</v>
+        <v>2251.92487</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -8407,7 +8407,7 @@
         <v>583</v>
       </c>
       <c r="B583">
-        <v>435.9099999999999</v>
+        <v>435.91</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -8415,7 +8415,7 @@
         <v>584</v>
       </c>
       <c r="B584">
-        <v>2267.959999999999</v>
+        <v>2267.96</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -8463,7 +8463,7 @@
         <v>590</v>
       </c>
       <c r="B590">
-        <v>169119.1500000001</v>
+        <v>169119.15</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -8479,7 +8479,7 @@
         <v>592</v>
       </c>
       <c r="B592">
-        <v>8712.499999999996</v>
+        <v>8712.5</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -8503,7 +8503,7 @@
         <v>595</v>
       </c>
       <c r="B595">
-        <v>77631.29000000002</v>
+        <v>77631.28999999999</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>602</v>
       </c>
       <c r="B602">
-        <v>8497.872877000003</v>
+        <v>8497.872877</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -8567,7 +8567,7 @@
         <v>603</v>
       </c>
       <c r="B603">
-        <v>40610.76655799999</v>
+        <v>40610.766558</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -8583,7 +8583,7 @@
         <v>605</v>
       </c>
       <c r="B605">
-        <v>6813.549999999998</v>
+        <v>6813.55</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -8599,7 +8599,7 @@
         <v>607</v>
       </c>
       <c r="B607">
-        <v>151566.9399999998</v>
+        <v>151566.94</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -8631,7 +8631,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>6158.982506000002</v>
+        <v>6158.982506</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -8663,7 +8663,7 @@
         <v>615</v>
       </c>
       <c r="B615">
-        <v>2096.260000000001</v>
+        <v>2096.26</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -8671,7 +8671,7 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>7662.219999999998</v>
+        <v>7662.22</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -8687,7 +8687,7 @@
         <v>618</v>
       </c>
       <c r="B618">
-        <v>4240.181999999999</v>
+        <v>4240.182</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -8735,7 +8735,7 @@
         <v>624</v>
       </c>
       <c r="B624">
-        <v>9703.696428999996</v>
+        <v>9703.696429</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -8759,7 +8759,7 @@
         <v>627</v>
       </c>
       <c r="B627">
-        <v>52.96300000000001</v>
+        <v>52.963</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -8799,7 +8799,7 @@
         <v>632</v>
       </c>
       <c r="B632">
-        <v>62407.50000000031</v>
+        <v>62407.5</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -8815,7 +8815,7 @@
         <v>634</v>
       </c>
       <c r="B634">
-        <v>2682.516850999999</v>
+        <v>2682.516851</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -8839,7 +8839,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>110652.2600550001</v>
+        <v>110652.260055</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -8903,7 +8903,7 @@
         <v>645</v>
       </c>
       <c r="B645">
-        <v>6214.210000000001</v>
+        <v>6214.21</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -8911,7 +8911,7 @@
         <v>646</v>
       </c>
       <c r="B646">
-        <v>42850.50687899999</v>
+        <v>42850.506879</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -8927,7 +8927,7 @@
         <v>648</v>
       </c>
       <c r="B648">
-        <v>169819.2400000001</v>
+        <v>169819.24</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -8935,7 +8935,7 @@
         <v>649</v>
       </c>
       <c r="B649">
-        <v>6433.399999999989</v>
+        <v>6433.4</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -8943,7 +8943,7 @@
         <v>650</v>
       </c>
       <c r="B650">
-        <v>1853.500000000001</v>
+        <v>1853.5</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -9055,7 +9055,7 @@
         <v>664</v>
       </c>
       <c r="B664">
-        <v>10319.74000000001</v>
+        <v>10319.74</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -9079,7 +9079,7 @@
         <v>667</v>
       </c>
       <c r="B667">
-        <v>21814.37000000001</v>
+        <v>21814.37</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -9111,7 +9111,7 @@
         <v>671</v>
       </c>
       <c r="B671">
-        <v>33329.81515899998</v>
+        <v>33329.815159</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -9151,7 +9151,7 @@
         <v>676</v>
       </c>
       <c r="B676">
-        <v>63038.95000000001</v>
+        <v>63038.95</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -9159,7 +9159,7 @@
         <v>677</v>
       </c>
       <c r="B677">
-        <v>13575.46000000001</v>
+        <v>13575.46</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -9167,7 +9167,7 @@
         <v>678</v>
       </c>
       <c r="B678">
-        <v>6425.110000000001</v>
+        <v>6425.11</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -9175,7 +9175,7 @@
         <v>679</v>
       </c>
       <c r="B679">
-        <v>840.241045</v>
+        <v>840.2410450000001</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -9191,7 +9191,7 @@
         <v>681</v>
       </c>
       <c r="B681">
-        <v>182029.0600000002</v>
+        <v>182029.06</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -9215,7 +9215,7 @@
         <v>684</v>
       </c>
       <c r="B684">
-        <v>21501.36999999998</v>
+        <v>21501.37</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>690</v>
       </c>
       <c r="B690">
-        <v>2957.400000000004</v>
+        <v>2957.4</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -9287,7 +9287,7 @@
         <v>693</v>
       </c>
       <c r="B693">
-        <v>18397.29000000001</v>
+        <v>18397.29</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -9295,7 +9295,7 @@
         <v>694</v>
       </c>
       <c r="B694">
-        <v>94267.93568300005</v>
+        <v>94267.935683</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -9303,7 +9303,7 @@
         <v>695</v>
       </c>
       <c r="B695">
-        <v>36719.52000000001</v>
+        <v>36719.52</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>706</v>
       </c>
       <c r="B706">
-        <v>61549.41000000005</v>
+        <v>61549.41</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -9407,7 +9407,7 @@
         <v>708</v>
       </c>
       <c r="B708">
-        <v>75942.74734100007</v>
+        <v>75942.74734099999</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -9415,7 +9415,7 @@
         <v>709</v>
       </c>
       <c r="B709">
-        <v>373863.4000000001</v>
+        <v>373863.4</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>716</v>
       </c>
       <c r="B716">
-        <v>2671.640000000001</v>
+        <v>2671.64</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -9519,7 +9519,7 @@
         <v>722</v>
       </c>
       <c r="B722">
-        <v>22305.19000000001</v>
+        <v>22305.19</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -9527,7 +9527,7 @@
         <v>723</v>
       </c>
       <c r="B723">
-        <v>79079.56999999998</v>
+        <v>79079.56999999999</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -9535,7 +9535,7 @@
         <v>724</v>
       </c>
       <c r="B724">
-        <v>8782.059999999998</v>
+        <v>8782.059999999999</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -9543,7 +9543,7 @@
         <v>725</v>
       </c>
       <c r="B725">
-        <v>25949.08999999999</v>
+        <v>25949.09</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -9551,7 +9551,7 @@
         <v>726</v>
       </c>
       <c r="B726">
-        <v>594.3</v>
+        <v>594.3000000000001</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -9591,7 +9591,7 @@
         <v>731</v>
       </c>
       <c r="B731">
-        <v>3738.248760000001</v>
+        <v>3738.24876</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -9599,7 +9599,7 @@
         <v>732</v>
       </c>
       <c r="B732">
-        <v>5318.200000000003</v>
+        <v>5318.2</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -9639,7 +9639,7 @@
         <v>737</v>
       </c>
       <c r="B737">
-        <v>7184.979999999999</v>
+        <v>7184.98</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -9663,7 +9663,7 @@
         <v>740</v>
       </c>
       <c r="B740">
-        <v>33849.40999999998</v>
+        <v>33849.41</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -9719,7 +9719,7 @@
         <v>747</v>
       </c>
       <c r="B747">
-        <v>22026.81086499999</v>
+        <v>22026.810865</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -9735,7 +9735,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>73378.58237599992</v>
+        <v>73378.58237600001</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -9751,7 +9751,7 @@
         <v>751</v>
       </c>
       <c r="B751">
-        <v>216.1300000000001</v>
+        <v>216.13</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -9759,7 +9759,7 @@
         <v>752</v>
       </c>
       <c r="B752">
-        <v>66828.80999999992</v>
+        <v>66828.81</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -9823,7 +9823,7 @@
         <v>760</v>
       </c>
       <c r="B760">
-        <v>3675.875999999999</v>
+        <v>3675.876</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -9895,7 +9895,7 @@
         <v>769</v>
       </c>
       <c r="B769">
-        <v>19223.60405600001</v>
+        <v>19223.604056</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -9935,7 +9935,7 @@
         <v>774</v>
       </c>
       <c r="B774">
-        <v>2703.540000000001</v>
+        <v>2703.54</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -9943,7 +9943,7 @@
         <v>775</v>
       </c>
       <c r="B775">
-        <v>421996.6199999995</v>
+        <v>421996.62</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -9991,7 +9991,7 @@
         <v>781</v>
       </c>
       <c r="B781">
-        <v>7025.300000000001</v>
+        <v>7025.3</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -10015,7 +10015,7 @@
         <v>784</v>
       </c>
       <c r="B784">
-        <v>871.3499999999999</v>
+        <v>871.35</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -10055,7 +10055,7 @@
         <v>789</v>
       </c>
       <c r="B789">
-        <v>59.64000000000001</v>
+        <v>59.64</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -10063,7 +10063,7 @@
         <v>790</v>
       </c>
       <c r="B790">
-        <v>4610.190000000001</v>
+        <v>4610.19</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -10087,7 +10087,7 @@
         <v>793</v>
       </c>
       <c r="B793">
-        <v>208.8334049999999</v>
+        <v>208.833405</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -10095,7 +10095,7 @@
         <v>794</v>
       </c>
       <c r="B794">
-        <v>3972.546312000001</v>
+        <v>3972.546312</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -10119,7 +10119,7 @@
         <v>797</v>
       </c>
       <c r="B797">
-        <v>7231.289999999999</v>
+        <v>7231.29</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -10151,7 +10151,7 @@
         <v>801</v>
       </c>
       <c r="B801">
-        <v>7572.733124999998</v>
+        <v>7572.733125</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -10167,7 +10167,7 @@
         <v>803</v>
       </c>
       <c r="B803">
-        <v>111847.3100000001</v>
+        <v>111847.31</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -10175,7 +10175,7 @@
         <v>804</v>
       </c>
       <c r="B804">
-        <v>2183.509999999999</v>
+        <v>2183.51</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -10183,7 +10183,7 @@
         <v>805</v>
       </c>
       <c r="B805">
-        <v>777.3121969999999</v>
+        <v>777.312197</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -10223,7 +10223,7 @@
         <v>810</v>
       </c>
       <c r="B810">
-        <v>47670.66000000005</v>
+        <v>47670.66</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -10239,7 +10239,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>64820.95000000005</v>
+        <v>64820.95</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -10311,7 +10311,7 @@
         <v>821</v>
       </c>
       <c r="B821">
-        <v>18938.15000000001</v>
+        <v>18938.15</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -10319,7 +10319,7 @@
         <v>822</v>
       </c>
       <c r="B822">
-        <v>614.6618269999998</v>
+        <v>614.661827</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -10335,7 +10335,7 @@
         <v>824</v>
       </c>
       <c r="B824">
-        <v>99523.50000000012</v>
+        <v>99523.5</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -10351,7 +10351,7 @@
         <v>826</v>
       </c>
       <c r="B826">
-        <v>3708.440000000003</v>
+        <v>3708.44</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -10407,7 +10407,7 @@
         <v>833</v>
       </c>
       <c r="B833">
-        <v>26361.93441099999</v>
+        <v>26361.934411</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -10423,7 +10423,7 @@
         <v>835</v>
       </c>
       <c r="B835">
-        <v>2073.764580999999</v>
+        <v>2073.764581</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -10447,7 +10447,7 @@
         <v>838</v>
       </c>
       <c r="B838">
-        <v>79.35000000000001</v>
+        <v>79.34999999999999</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -10479,7 +10479,7 @@
         <v>842</v>
       </c>
       <c r="B842">
-        <v>825.1999999999986</v>
+        <v>825.2</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -10487,7 +10487,7 @@
         <v>843</v>
       </c>
       <c r="B843">
-        <v>46272.84000000021</v>
+        <v>46272.84</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -10503,7 +10503,7 @@
         <v>845</v>
       </c>
       <c r="B845">
-        <v>3026589.529999607</v>
+        <v>3026589.53</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -10511,7 +10511,7 @@
         <v>846</v>
       </c>
       <c r="B846">
-        <v>768.5900000000003</v>
+        <v>768.59</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -10519,7 +10519,7 @@
         <v>847</v>
       </c>
       <c r="B847">
-        <v>17663.16999999997</v>
+        <v>17663.17</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -10567,7 +10567,7 @@
         <v>853</v>
       </c>
       <c r="B853">
-        <v>133358.7000000001</v>
+        <v>133358.7</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -10663,7 +10663,7 @@
         <v>865</v>
       </c>
       <c r="B865">
-        <v>71.44000000000001</v>
+        <v>71.44</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -10719,7 +10719,7 @@
         <v>872</v>
       </c>
       <c r="B872">
-        <v>86605.79999999984</v>
+        <v>86605.8</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -10735,7 +10735,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>63259.20999999995</v>
+        <v>63259.21</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -10743,7 +10743,7 @@
         <v>875</v>
       </c>
       <c r="B875">
-        <v>42646.63999999998</v>
+        <v>42646.64</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -10775,7 +10775,7 @@
         <v>879</v>
       </c>
       <c r="B879">
-        <v>6784.629999999999</v>
+        <v>6784.63</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -10791,7 +10791,7 @@
         <v>881</v>
       </c>
       <c r="B881">
-        <v>92288.56000000006</v>
+        <v>92288.56</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>882</v>
       </c>
       <c r="B882">
-        <v>71260.87000000005</v>
+        <v>71260.87</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -10831,7 +10831,7 @@
         <v>886</v>
       </c>
       <c r="B886">
-        <v>6086.360000000001</v>
+        <v>6086.36</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -10855,7 +10855,7 @@
         <v>889</v>
       </c>
       <c r="B889">
-        <v>6175.329999999999</v>
+        <v>6175.33</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -10903,7 +10903,7 @@
         <v>895</v>
       </c>
       <c r="B895">
-        <v>43342.97159999999</v>
+        <v>43342.9716</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -10927,7 +10927,7 @@
         <v>898</v>
       </c>
       <c r="B898">
-        <v>413.7099999999998</v>
+        <v>413.71</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -10951,7 +10951,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>8146.229999999997</v>
+        <v>8146.23</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -10991,7 +10991,7 @@
         <v>906</v>
       </c>
       <c r="B906">
-        <v>5778.389999999999</v>
+        <v>5778.39</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -11015,7 +11015,7 @@
         <v>909</v>
       </c>
       <c r="B909">
-        <v>496.6999999999999</v>
+        <v>496.7</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -11047,7 +11047,7 @@
         <v>913</v>
       </c>
       <c r="B913">
-        <v>77858.40000000007</v>
+        <v>77858.39999999999</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -11055,7 +11055,7 @@
         <v>914</v>
       </c>
       <c r="B914">
-        <v>75728.71000000002</v>
+        <v>75728.71000000001</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -11087,7 +11087,7 @@
         <v>918</v>
       </c>
       <c r="B918">
-        <v>3171.837472000001</v>
+        <v>3171.837472</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -11143,7 +11143,7 @@
         <v>925</v>
       </c>
       <c r="B925">
-        <v>4306.930000000001</v>
+        <v>4306.93</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -11183,7 +11183,7 @@
         <v>930</v>
       </c>
       <c r="B930">
-        <v>5717.015630000001</v>
+        <v>5717.01563</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>934</v>
       </c>
       <c r="B934">
-        <v>8490.562324999999</v>
+        <v>8490.562325000001</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -11303,7 +11303,7 @@
         <v>945</v>
       </c>
       <c r="B945">
-        <v>141764.3096000002</v>
+        <v>141764.3096</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -11319,7 +11319,7 @@
         <v>947</v>
       </c>
       <c r="B947">
-        <v>1598.190000000001</v>
+        <v>1598.19</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -11351,7 +11351,7 @@
         <v>951</v>
       </c>
       <c r="B951">
-        <v>13352.48999999999</v>
+        <v>13352.49</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -11359,7 +11359,7 @@
         <v>952</v>
       </c>
       <c r="B952">
-        <v>6781.909999999998</v>
+        <v>6781.91</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -11383,7 +11383,7 @@
         <v>955</v>
       </c>
       <c r="B955">
-        <v>142021.2000000002</v>
+        <v>142021.2</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -11399,7 +11399,7 @@
         <v>957</v>
       </c>
       <c r="B957">
-        <v>11901.22479999999</v>
+        <v>11901.2248</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -11415,7 +11415,7 @@
         <v>959</v>
       </c>
       <c r="B959">
-        <v>7297.492050999998</v>
+        <v>7297.492051</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -11439,7 +11439,7 @@
         <v>962</v>
       </c>
       <c r="B962">
-        <v>822.1200000000002</v>
+        <v>822.12</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -11463,7 +11463,7 @@
         <v>965</v>
       </c>
       <c r="B965">
-        <v>7705.207703999999</v>
+        <v>7705.207704</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -11479,7 +11479,7 @@
         <v>967</v>
       </c>
       <c r="B967">
-        <v>6432.379999999998</v>
+        <v>6432.38</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -11519,7 +11519,7 @@
         <v>972</v>
       </c>
       <c r="B972">
-        <v>165027.5299999999</v>
+        <v>165027.53</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -11559,7 +11559,7 @@
         <v>977</v>
       </c>
       <c r="B977">
-        <v>6574.960000000002</v>
+        <v>6574.96</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>506.2199999999999</v>
+        <v>506.22</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -11631,7 +11631,7 @@
         <v>986</v>
       </c>
       <c r="B986">
-        <v>120051.0500000001</v>
+        <v>120051.05</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -11647,7 +11647,7 @@
         <v>988</v>
       </c>
       <c r="B988">
-        <v>2250.230582000001</v>
+        <v>2250.230582</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -11727,7 +11727,7 @@
         <v>998</v>
       </c>
       <c r="B998">
-        <v>75571.42414699997</v>
+        <v>75571.424147</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -11751,7 +11751,7 @@
         <v>1001</v>
       </c>
       <c r="B1001">
-        <v>1703.685000000001</v>
+        <v>1703.685</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -11775,7 +11775,7 @@
         <v>1004</v>
       </c>
       <c r="B1004">
-        <v>80599.51000000001</v>
+        <v>80599.50999999999</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -11839,7 +11839,7 @@
         <v>1012</v>
       </c>
       <c r="B1012">
-        <v>79314.27079999991</v>
+        <v>79314.2708</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -11847,7 +11847,7 @@
         <v>1013</v>
       </c>
       <c r="B1013">
-        <v>7630.880000000001</v>
+        <v>7630.88</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -11871,7 +11871,7 @@
         <v>1016</v>
       </c>
       <c r="B1016">
-        <v>1045423.290000022</v>
+        <v>1045423.29</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -11887,7 +11887,7 @@
         <v>1018</v>
       </c>
       <c r="B1018">
-        <v>546.83</v>
+        <v>546.8299999999999</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -11935,7 +11935,7 @@
         <v>1024</v>
       </c>
       <c r="B1024">
-        <v>65760.54000000002</v>
+        <v>65760.53999999999</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -11959,7 +11959,7 @@
         <v>1027</v>
       </c>
       <c r="B1027">
-        <v>5087.090000000001</v>
+        <v>5087.09</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -12007,7 +12007,7 @@
         <v>1033</v>
       </c>
       <c r="B1033">
-        <v>27983.98999999999</v>
+        <v>27983.99</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -12023,7 +12023,7 @@
         <v>1035</v>
       </c>
       <c r="B1035">
-        <v>43986.15000000001</v>
+        <v>43986.15</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -12031,7 +12031,7 @@
         <v>1036</v>
       </c>
       <c r="B1036">
-        <v>164131.8555449998</v>
+        <v>164131.855545</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -12039,7 +12039,7 @@
         <v>1037</v>
       </c>
       <c r="B1037">
-        <v>8.4091</v>
+        <v>8.409099999999999</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -12047,7 +12047,7 @@
         <v>1038</v>
       </c>
       <c r="B1038">
-        <v>87840.70224300005</v>
+        <v>87840.70224300001</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -12055,7 +12055,7 @@
         <v>1039</v>
       </c>
       <c r="B1039">
-        <v>87.47000000000001</v>
+        <v>87.47</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -12063,7 +12063,7 @@
         <v>1040</v>
       </c>
       <c r="B1040">
-        <v>4212.441583000001</v>
+        <v>4212.441583</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -12079,7 +12079,7 @@
         <v>1042</v>
       </c>
       <c r="B1042">
-        <v>5845.900000000001</v>
+        <v>5845.9</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -12127,7 +12127,7 @@
         <v>1048</v>
       </c>
       <c r="B1048">
-        <v>730.4652520000002</v>
+        <v>730.465252</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -12151,7 +12151,7 @@
         <v>1051</v>
       </c>
       <c r="B1051">
-        <v>148467.2699999999</v>
+        <v>148467.27</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -12159,7 +12159,7 @@
         <v>1052</v>
       </c>
       <c r="B1052">
-        <v>7909.552704999999</v>
+        <v>7909.552705</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -12167,7 +12167,7 @@
         <v>1053</v>
       </c>
       <c r="B1053">
-        <v>39872.10000000001</v>
+        <v>39872.1</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -12199,7 +12199,7 @@
         <v>1057</v>
       </c>
       <c r="B1057">
-        <v>16361.19000000001</v>
+        <v>16361.19</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -12215,7 +12215,7 @@
         <v>1059</v>
       </c>
       <c r="B1059">
-        <v>15999.19999999998</v>
+        <v>15999.2</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -12223,7 +12223,7 @@
         <v>1060</v>
       </c>
       <c r="B1060">
-        <v>92177.95999999992</v>
+        <v>92177.96000000001</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -12239,7 +12239,7 @@
         <v>1062</v>
       </c>
       <c r="B1062">
-        <v>206721.6999999985</v>
+        <v>206721.7</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -12263,7 +12263,7 @@
         <v>1065</v>
       </c>
       <c r="B1065">
-        <v>32868.25000000002</v>
+        <v>32868.25</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -12311,7 +12311,7 @@
         <v>1071</v>
       </c>
       <c r="B1071">
-        <v>4839.969999999998</v>
+        <v>4839.97</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -12319,7 +12319,7 @@
         <v>1072</v>
       </c>
       <c r="B1072">
-        <v>25686.26999999999</v>
+        <v>25686.27</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -12335,7 +12335,7 @@
         <v>1074</v>
       </c>
       <c r="B1074">
-        <v>710.4100000000001</v>
+        <v>710.41</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -12351,7 +12351,7 @@
         <v>1076</v>
       </c>
       <c r="B1076">
-        <v>7020.299999999999</v>
+        <v>7020.3</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -12375,7 +12375,7 @@
         <v>1079</v>
       </c>
       <c r="B1079">
-        <v>2763.619999999999</v>
+        <v>2763.62</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -12423,7 +12423,7 @@
         <v>1085</v>
       </c>
       <c r="B1085">
-        <v>764.7800000000001</v>
+        <v>764.78</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -12439,7 +12439,7 @@
         <v>1087</v>
       </c>
       <c r="B1087">
-        <v>39170.24999999997</v>
+        <v>39170.25</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -12447,7 +12447,7 @@
         <v>1088</v>
       </c>
       <c r="B1088">
-        <v>91881.65999999997</v>
+        <v>91881.66</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -12455,7 +12455,7 @@
         <v>1089</v>
       </c>
       <c r="B1089">
-        <v>4559.633003999999</v>
+        <v>4559.633004</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -12503,7 +12503,7 @@
         <v>1095</v>
       </c>
       <c r="B1095">
-        <v>740.4399999999999</v>
+        <v>740.4400000000001</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -12527,7 +12527,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>654.6229639999999</v>
+        <v>654.622964</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -12559,7 +12559,7 @@
         <v>1102</v>
       </c>
       <c r="B1102">
-        <v>160835.4916000001</v>
+        <v>160835.4916</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
@@ -12583,7 +12583,7 @@
         <v>1105</v>
       </c>
       <c r="B1105">
-        <v>39283.55664800001</v>
+        <v>39283.556648</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -12599,7 +12599,7 @@
         <v>1107</v>
       </c>
       <c r="B1107">
-        <v>61727.28000000003</v>
+        <v>61727.28</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -12607,7 +12607,7 @@
         <v>1108</v>
       </c>
       <c r="B1108">
-        <v>2316.238475000001</v>
+        <v>2316.238475</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -12639,7 +12639,7 @@
         <v>1112</v>
       </c>
       <c r="B1112">
-        <v>4813.349999999999</v>
+        <v>4813.35</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -12671,7 +12671,7 @@
         <v>1116</v>
       </c>
       <c r="B1116">
-        <v>633.4999999999999</v>
+        <v>633.5</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -12703,7 +12703,7 @@
         <v>1120</v>
       </c>
       <c r="B1120">
-        <v>196279.1399999997</v>
+        <v>196279.14</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -12711,7 +12711,7 @@
         <v>1121</v>
       </c>
       <c r="B1121">
-        <v>285150.1310081398</v>
+        <v>285150.1310081403</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
